--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -7,20 +7,20 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="add_auth_method" sheetId="2" r:id="rId2"/>
-    <sheet name="mod_ad_method" sheetId="3" r:id="rId3"/>
-    <sheet name="ad_method_checkout" sheetId="4" r:id="rId4"/>
-    <sheet name="radius_method_checkout" sheetId="5" r:id="rId5"/>
-    <sheet name="del_raius_method" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="add_user" sheetId="7" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId2"/>
+    <sheet name="add_auth_method" sheetId="2" r:id="rId3"/>
+    <sheet name="mod_ad_method" sheetId="3" r:id="rId4"/>
+    <sheet name="ad_method_checkout" sheetId="4" r:id="rId5"/>
+    <sheet name="radius_method_checkout" sheetId="5" r:id="rId6"/>
+    <sheet name="del_raius_method" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,10 +96,6 @@
   </si>
   <si>
     <t>添加radius动态令牌+口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加数字证书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> test_F07_S19_mod_AD域_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>端口号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> test_F07_S19_checkout_AD域_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>radius认证配置主、备信息必须有一个全部填写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,45 +245,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_F07_S19_checkout_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除radius认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全部认证方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>test_F07_S19_del_009</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,87 +320,111 @@
     <t>12345678</t>
   </si>
   <si>
+    <t>主IP超过最大限制的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius认证配置主IP格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主IP为空的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius认证配置主、备信息必须有一个全部填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主IP格式不正确的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主ip为空备和备通讯秘钥为空的校验1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius认证配置主、备信息必须有一个全部填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius认证配置主、备信息必须有一个全部填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除其他认证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>保存成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主IP超过最大限制的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius认证配置主IP格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主IP为空的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius认证配置主、备信息必须有一个全部填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主IP格式不正确的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主ip和端口号均不合法的校验1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主ip为空备和备通讯秘钥为空的校验1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">radius认证配置主、备信息必须有一个全部填写 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius认证配置主、备信息必须有一个全部填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius认证配置主、备信息必须有一个全部填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除其他认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名+口令(默认方式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯秘钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加数字证书并校验五种认证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式添加成功的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F07_S19_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F07_S19_mod_AD域_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F07_S19_checkout_AD域_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F07_S19_checkout_009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,13 +452,54 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯秘钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称\简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,11 +1007,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1031,17 +1119,26 @@
       <c r="A2" s="1"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
       <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
@@ -1202,13 +1299,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1217,11 +1314,11 @@
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="37.25" customWidth="1"/>
+    <col min="5" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1229,69 +1326,73 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>389</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>1812</v>
@@ -1300,74 +1401,80 @@
       <c r="H3" s="2">
         <v>12345678</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1377,8 +1484,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1388,8 +1496,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1399,8 +1508,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1410,8 +1520,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1421,8 +1532,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1432,8 +1544,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1443,8 +1556,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1454,8 +1568,9 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1465,8 +1580,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1476,8 +1592,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1487,8 +1604,9 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1498,8 +1616,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1509,8 +1628,9 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1520,8 +1640,9 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1531,8 +1652,9 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1542,6 +1664,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1550,13 +1673,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1567,7 +1690,7 @@
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1578,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1595,25 +1718,25 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>389</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1652,13 +1775,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1677,16 +1800,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -1694,142 +1817,142 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>65536</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>389</v>
@@ -1837,28 +1960,28 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>389</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1876,13 +1999,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1905,19 +2028,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -1925,163 +2048,163 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>65536</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>1812</v>
@@ -2090,29 +2213,29 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1812</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2132,13 +2255,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2158,16 +2281,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>6</v>
@@ -2175,127 +2298,20 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12345678</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
-    <col min="8" max="8" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="7" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ad_method_checkout" sheetId="4" r:id="rId5"/>
     <sheet name="radius_method_checkout" sheetId="5" r:id="rId6"/>
     <sheet name="del_raius_method" sheetId="6" r:id="rId7"/>
+    <sheet name="meth_method_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +501,14 @@
   </si>
   <si>
     <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD域IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiusIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1305,7 +1314,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2317,4 +2326,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="7" r:id="rId1"/>
@@ -14,14 +14,13 @@
     <sheet name="ad_method_checkout" sheetId="4" r:id="rId5"/>
     <sheet name="radius_method_checkout" sheetId="5" r:id="rId6"/>
     <sheet name="del_raius_method" sheetId="6" r:id="rId7"/>
-    <sheet name="meth_method_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,27 +471,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登录方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称\简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>系统管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称\简称</t>
+    <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,15 +499,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD域IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radiusIP</t>
+    <t>系统管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1010,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1032,13 +1023,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>99</v>
@@ -1056,13 +1047,13 @@
     <row r="2" spans="1:7">
       <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1071,15 +1062,15 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1093,8 +1084,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1135,6 +1126,9 @@
       </c>
       <c r="E2" s="1">
         <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2326,53 +2320,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -499,7 +499,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员</t>
+    <t>xt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -4,35 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="add_user" sheetId="7" r:id="rId1"/>
-    <sheet name="login" sheetId="1" r:id="rId2"/>
-    <sheet name="add_auth_method" sheetId="2" r:id="rId3"/>
-    <sheet name="mod_ad_method" sheetId="3" r:id="rId4"/>
-    <sheet name="ad_method_checkout" sheetId="4" r:id="rId5"/>
-    <sheet name="radius_method_checkout" sheetId="5" r:id="rId6"/>
-    <sheet name="del_raius_method" sheetId="6" r:id="rId7"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="add_auth_method" sheetId="2" r:id="rId2"/>
+    <sheet name="mod_ad_method" sheetId="3" r:id="rId3"/>
+    <sheet name="ad_method_checkout" sheetId="4" r:id="rId4"/>
+    <sheet name="radius_method_checkout" sheetId="5" r:id="rId5"/>
+    <sheet name="del_raius_method" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>域口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,19 +41,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AD域认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加radius认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选认证方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,22 +96,6 @@
   </si>
   <si>
     <t>修改AD域认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯秘钥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>端口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IP格式不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全部认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,19 +339,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯秘钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,51 +394,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称\简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选认证方式3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口号5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯秘钥7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选认证方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部认证方式3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯秘钥5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -606,13 +585,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -622,21 +599,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -668,41 +634,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,293 +973,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12"/>
-      <c r="B2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2">
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F22"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="57.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>389</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1812</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="12"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="13"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="13"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,393 +1576,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J22"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="37.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2">
-        <v>389</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1812</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="31.375" customWidth="1"/>
@@ -1698,76 +1596,76 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>389</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1778,13 +1676,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1797,204 +1695,195 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G6" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>65536</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>389</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>389</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G10" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2002,254 +1891,244 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="59.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
-        <v>97</v>
+      <c r="H2" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="14" t="s">
-        <v>97</v>
+      <c r="H3" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="14" t="s">
-        <v>97</v>
+      <c r="H4" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="10" t="s">
-        <v>70</v>
+      <c r="E5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="14" t="s">
-        <v>97</v>
+      <c r="H5" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="14" t="s">
-        <v>97</v>
+      <c r="H6" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>70</v>
+      <c r="E7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="14" t="s">
-        <v>97</v>
+      <c r="H7" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>65536</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>70</v>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="14" t="s">
-        <v>97</v>
+      <c r="H8" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>1812</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="14" t="s">
-        <v>97</v>
+      <c r="H9" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1812</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>70</v>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2258,13 +2137,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2278,42 +2157,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="17" t="s">
-        <v>98</v>
+      <c r="G2" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hgcs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>radius认证配置主IP格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,10 +308,6 @@
   </si>
   <si>
     <t>radius认证配置主、备信息必须有一个全部填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP格式不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,6 +463,14 @@
   </si>
   <si>
     <t>通讯秘钥5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius认证配置主地址格式不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,19 +983,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1016,27 +1008,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1221,31 +1213,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -1256,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
@@ -1284,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>16</v>
@@ -1312,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1334,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -1353,10 +1345,10 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1369,7 +1361,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>17</v>
@@ -1596,22 +1588,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1622,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -1631,13 +1623,13 @@
         <v>389</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1682,7 +1674,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1695,22 +1687,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1718,59 +1710,59 @@
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
@@ -1779,36 +1771,36 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
@@ -1817,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>22</v>
@@ -1838,19 +1830,19 @@
         <v>65536</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>22</v>
@@ -1861,15 +1853,15 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1878,11 +1870,11 @@
         <v>389</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1896,8 +1888,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1920,19 +1912,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1940,163 +1932,163 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>65536</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>1812</v>
@@ -2105,29 +2097,29 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1812</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2134,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2157,22 +2149,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>2</v>
@@ -2180,19 +2172,19 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
